--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-23.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-23.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,26 +423,6 @@
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr"/>
-      <c r="J1" t="inlineStr"/>
-      <c r="K1" t="inlineStr"/>
-      <c r="L1" t="inlineStr"/>
-      <c r="M1" t="inlineStr"/>
-      <c r="N1" t="inlineStr"/>
-      <c r="O1" t="inlineStr"/>
-      <c r="P1" t="inlineStr"/>
-      <c r="Q1" t="inlineStr"/>
-      <c r="R1" t="inlineStr"/>
-      <c r="S1" t="inlineStr"/>
-      <c r="T1" t="inlineStr"/>
-      <c r="U1" t="inlineStr"/>
-      <c r="V1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -450,107 +430,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;dt&gt;Max stock &lt;/dt&gt;</t>
+          <t>Migrate from ASP.NET Membership authentication to ASP.NET Core 2.0 Identity</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
-          <t>&lt;asp:Label runat="server" Text='&lt;%#product.RestockThreshold%&gt;' /&gt; &lt;/dd&gt;</t>
+          <t>Migrate Authentication and Identity to ASP.NET Core</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;dd&gt;</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>&lt;dt&gt;Restock &lt;/dt&gt;</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>&lt;asp:Label runat="server" Text='&lt;%#product.AvailableStock%&gt;' /&gt; &lt;/dd&gt;</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>&lt;/dt&gt; &lt;dd&gt;</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>&lt;dt&gt;Stock</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>&lt;/dd&gt;</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>&lt;dd&gt; &lt;asp:Label runat="server" Text='&lt;%#product.PictureFileName%&gt;' /&gt;</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>&lt;asp:Label CssClass="esh-price" runat="server" Text='&lt;%#product.Price%&gt;' /&gt; &lt;/dd&gt;</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>&lt;dd&gt;</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>&lt;asp:Label runat="server" Text='&lt;%#product.CatalogType.Type%&gt;' /&gt; &lt;/dd&gt; &lt;dt&gt;Price &lt;/dt&gt;</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>&lt;/dt&gt; &lt;dd&gt;</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>&lt;dt&gt;Type</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>&lt;dd&gt; &lt;asp:Label runat="server" Text='&lt;%#product.CatalogBrand.Brand%&gt;' /&gt; &lt;/dd&gt;</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>&lt;dt&gt;Brand &lt;/dt&gt;</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>&lt;asp:Label runat="server" Text='&lt;%#product.Description%&gt;' /&gt; &lt;/dd&gt;</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>&lt;/dt&gt; &lt;dd&gt;</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>&lt;/dd&gt; &lt;dt&gt;Description</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>&lt;dd&gt; &lt;asp:Label runat="server" Text='&lt;%#product.Name%&gt;' /&gt;</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>product.PictureFileName%&gt;' /&gt; &lt;dl class="col-md-6 dl-horizontal"&gt; &lt;dt&gt;Name &lt;/dt&gt;</t>
+          <t>ASP.NET Core Blazor authentication and authorization</t>
         </is>
       </c>
     </row>
